--- a/results/SA/SemEval16 - Task 5 - Restaurants/SA_SemEval16_Results.xlsx
+++ b/results/SA/SemEval16 - Task 5 - Restaurants/SA_SemEval16_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\absa-online-reviews\results\SA\SemEval16 - Task 5 - Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01932DF5-7167-4B0F-B319-F28A38ECED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0225D2BA-B833-45CC-953C-438D59E4DD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="768" xr2:uid="{2BB8F1D5-1F1F-40BC-8E04-B3E7A6D9C2E3}"/>
+    <workbookView xWindow="5505" yWindow="3705" windowWidth="23295" windowHeight="11775" tabRatio="768" xr2:uid="{2BB8F1D5-1F1F-40BC-8E04-B3E7A6D9C2E3}"/>
   </bookViews>
   <sheets>
     <sheet name="BERT ft+DO+CNN+BiLSTM+Linear" sheetId="10" r:id="rId1"/>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -277,6 +277,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4CC195-E080-447C-8F25-04CD0A4744BB}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,28 +777,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="10">
-        <v>0.93910300000000002</v>
+        <v>0.913462</v>
       </c>
       <c r="D14" s="10">
-        <v>0.93910300000000002</v>
+        <v>0.913462</v>
       </c>
       <c r="E14" s="10">
-        <v>0.95648200000000005</v>
+        <v>0.61475299999999999</v>
       </c>
       <c r="F14" s="10">
-        <v>0.93910300000000002</v>
+        <v>0.913462</v>
       </c>
       <c r="G14" s="10">
-        <v>0.671292</v>
+        <v>0.62007199999999996</v>
       </c>
       <c r="H14" s="10">
-        <v>0.93910300000000002</v>
+        <v>0.913462</v>
       </c>
       <c r="I14" s="10">
-        <v>0.68442599999999998</v>
+        <v>0.61598299999999995</v>
       </c>
       <c r="J14" s="10">
-        <v>221.394408</v>
+        <v>200.17085599999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -803,28 +806,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="10">
-        <v>0.94871799999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="D15" s="10">
-        <v>0.94871799999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="E15" s="10">
-        <v>0.62282300000000002</v>
+        <v>0.62047799999999997</v>
       </c>
       <c r="F15" s="10">
-        <v>0.94871799999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="G15" s="10">
-        <v>0.64790800000000004</v>
+        <v>0.64570000000000005</v>
       </c>
       <c r="H15" s="10">
-        <v>0.94871799999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="I15" s="10">
-        <v>0.63507100000000005</v>
+        <v>0.63283699999999998</v>
       </c>
       <c r="J15" s="10">
-        <v>200.959013</v>
+        <v>196.96354400000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -832,28 +835,28 @@
         <v>3</v>
       </c>
       <c r="C16" s="10">
-        <v>0.95192299999999996</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="D16" s="10">
-        <v>0.95192299999999996</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="E16" s="10">
-        <v>0.63092599999999999</v>
+        <v>0.61139900000000003</v>
       </c>
       <c r="F16" s="10">
-        <v>0.95192299999999996</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="G16" s="10">
-        <v>0.64341499999999996</v>
+        <v>0.65098900000000004</v>
       </c>
       <c r="H16" s="10">
-        <v>0.95192299999999996</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="I16" s="10">
-        <v>0.63709499999999997</v>
+        <v>0.62980800000000003</v>
       </c>
       <c r="J16" s="10">
-        <v>198.44293500000001</v>
+        <v>201.06616099999999</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -861,28 +864,28 @@
         <v>4</v>
       </c>
       <c r="C17" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="D17" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="E17" s="10">
-        <v>0.617116</v>
+        <v>0.62087999999999999</v>
       </c>
       <c r="F17" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="G17" s="10">
-        <v>0.63547900000000002</v>
+        <v>0.64197099999999996</v>
       </c>
       <c r="H17" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="I17" s="10">
-        <v>0.62597199999999997</v>
+        <v>0.63115900000000003</v>
       </c>
       <c r="J17" s="10">
-        <v>197.73481200000001</v>
+        <v>199.39968999999999</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -896,22 +899,22 @@
         <v>0.93589699999999998</v>
       </c>
       <c r="E18" s="10">
-        <v>0.60639100000000001</v>
+        <v>0.94716800000000001</v>
       </c>
       <c r="F18" s="10">
         <v>0.93589699999999998</v>
       </c>
       <c r="G18" s="10">
-        <v>0.65101699999999996</v>
+        <v>0.67069299999999998</v>
       </c>
       <c r="H18" s="10">
         <v>0.93589699999999998</v>
       </c>
       <c r="I18" s="10">
-        <v>0.62572499999999998</v>
+        <v>0.67656000000000005</v>
       </c>
       <c r="J18" s="10">
-        <v>197.80975900000001</v>
+        <v>197.278369</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -919,28 +922,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="10">
-        <v>0.92307700000000004</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="D19" s="10">
-        <v>0.92307700000000004</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="E19" s="10">
-        <v>0.60778200000000004</v>
+        <v>0.96006100000000005</v>
       </c>
       <c r="F19" s="10">
-        <v>0.92307700000000004</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="G19" s="10">
-        <v>0.63593299999999997</v>
+        <v>0.70204299999999997</v>
       </c>
       <c r="H19" s="10">
-        <v>0.92307700000000004</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="I19" s="10">
-        <v>0.62153800000000003</v>
+        <v>0.74194899999999997</v>
       </c>
       <c r="J19" s="10">
-        <v>198.355403</v>
+        <v>196.99932200000001</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -948,28 +951,28 @@
         <v>7</v>
       </c>
       <c r="C20" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="D20" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="E20" s="10">
-        <v>0.59901099999999996</v>
+        <v>0.61750899999999997</v>
       </c>
       <c r="F20" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="G20" s="10">
-        <v>0.64581500000000003</v>
+        <v>0.65912499999999996</v>
       </c>
       <c r="H20" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="I20" s="10">
-        <v>0.61899400000000004</v>
+        <v>0.63658999999999999</v>
       </c>
       <c r="J20" s="10">
-        <v>206.877071</v>
+        <v>197.067465</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -983,22 +986,22 @@
         <v>0.93589699999999998</v>
       </c>
       <c r="E21" s="10">
-        <v>0.61238099999999995</v>
+        <v>0.62141800000000003</v>
       </c>
       <c r="F21" s="10">
         <v>0.93589699999999998</v>
       </c>
       <c r="G21" s="10">
-        <v>0.65203299999999997</v>
+        <v>0.63139199999999995</v>
       </c>
       <c r="H21" s="10">
         <v>0.93589699999999998</v>
       </c>
       <c r="I21" s="10">
-        <v>0.63032600000000005</v>
+        <v>0.62625699999999995</v>
       </c>
       <c r="J21" s="10">
-        <v>206.52902700000001</v>
+        <v>197.30908500000001</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1006,28 +1009,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="10">
-        <v>0.93589699999999998</v>
+        <v>0.94551300000000005</v>
       </c>
       <c r="D22" s="10">
-        <v>0.93589699999999998</v>
+        <v>0.94551300000000005</v>
       </c>
       <c r="E22" s="10">
-        <v>0.61014800000000002</v>
+        <v>0.95941699999999996</v>
       </c>
       <c r="F22" s="10">
-        <v>0.93589699999999998</v>
+        <v>0.94551300000000005</v>
       </c>
       <c r="G22" s="10">
-        <v>0.64973499999999995</v>
+        <v>0.67630400000000002</v>
       </c>
       <c r="H22" s="10">
-        <v>0.93589699999999998</v>
+        <v>0.94551300000000005</v>
       </c>
       <c r="I22" s="10">
-        <v>0.62855499999999997</v>
+        <v>0.68838900000000003</v>
       </c>
       <c r="J22" s="10">
-        <v>205.707866</v>
+        <v>197.30344299999999</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1035,28 +1038,28 @@
         <v>10</v>
       </c>
       <c r="C23" s="10">
-        <v>0.894231</v>
+        <v>0.961538</v>
       </c>
       <c r="D23" s="10">
-        <v>0.894231</v>
+        <v>0.961538</v>
       </c>
       <c r="E23" s="10">
-        <v>0.674234</v>
+        <v>0.63306300000000004</v>
       </c>
       <c r="F23" s="10">
-        <v>0.894231</v>
+        <v>0.961538</v>
       </c>
       <c r="G23" s="10">
-        <v>0.77748300000000004</v>
+        <v>0.65695800000000004</v>
       </c>
       <c r="H23" s="10">
-        <v>0.894231</v>
+        <v>0.961538</v>
       </c>
       <c r="I23" s="10">
-        <v>0.671732</v>
+        <v>0.644258</v>
       </c>
       <c r="J23" s="10">
-        <v>212.221633</v>
+        <v>197.12068400000001</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1125,35 +1128,35 @@
       </c>
       <c r="C28" s="7">
         <f>AVERAGE(C14:C23)</f>
-        <v>0.93237170000000003</v>
+        <v>0.94070520000000002</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" ref="D28:J28" si="0">AVERAGE(D14:D23)</f>
-        <v>0.93237170000000003</v>
+        <v>0.94070520000000002</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>0.65372940000000002</v>
+        <v>0.72061459999999999</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>0.93237170000000003</v>
+        <v>0.94070520000000002</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>0.66101100000000002</v>
+        <v>0.65552470000000007</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>0.93237170000000003</v>
+        <v>0.94070520000000002</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
-        <v>0.63794340000000016</v>
+        <v>0.65237900000000004</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>204.60319269999999</v>
+        <v>198.06786190000003</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1162,35 +1165,35 @@
       </c>
       <c r="C29" s="3">
         <f>STDEV(C14:C23)</f>
-        <v>1.5950603987519289E-2</v>
+        <v>1.2390233966044927E-2</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ref="D29:J29" si="1">STDEV(D14:D23)</f>
-        <v>1.5950603987519289E-2</v>
+        <v>1.2390233966044927E-2</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>0.10844893149845011</v>
+        <v>0.16225243547920393</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>1.5950603987519289E-2</v>
+        <v>1.2390233966044927E-2</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>4.2126890053213718E-2</v>
+        <v>2.3525179446948145E-2</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>1.5950603987519289E-2</v>
+        <v>1.2390233966044927E-2</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
-        <v>2.2056139282395821E-2</v>
+        <v>3.8827431351215261E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>7.7004639027483552</v>
+        <v>1.5358226502568122</v>
       </c>
     </row>
   </sheetData>
@@ -1203,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4AF173-655A-42AC-ABF5-0B69C1546DB5}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,28 +1386,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="10">
-        <v>0.894231</v>
+        <v>0.89102599999999998</v>
       </c>
       <c r="D14" s="10">
-        <v>0.894231</v>
+        <v>0.89102599999999998</v>
       </c>
       <c r="E14" s="10">
-        <v>0.57908800000000005</v>
+        <v>0.58861799999999997</v>
       </c>
       <c r="F14" s="10">
-        <v>0.894231</v>
+        <v>0.89102599999999998</v>
       </c>
       <c r="G14" s="10">
-        <v>0.61940899999999999</v>
+        <v>0.612703</v>
       </c>
       <c r="H14" s="10">
-        <v>0.894231</v>
+        <v>0.89102599999999998</v>
       </c>
       <c r="I14" s="10">
-        <v>0.59688600000000003</v>
+        <v>0.600383</v>
       </c>
       <c r="J14" s="10">
-        <v>201.17017999999999</v>
+        <v>209.204387</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1412,28 +1415,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.90384600000000004</v>
       </c>
       <c r="D15" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.90384600000000004</v>
       </c>
       <c r="E15" s="10">
-        <v>0.59332399999999996</v>
+        <v>0.60212500000000002</v>
       </c>
       <c r="F15" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.90384600000000004</v>
       </c>
       <c r="G15" s="10">
-        <v>0.63365499999999997</v>
+        <v>0.61005100000000001</v>
       </c>
       <c r="H15" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.90384600000000004</v>
       </c>
       <c r="I15" s="10">
-        <v>0.61247399999999996</v>
+        <v>0.60559700000000005</v>
       </c>
       <c r="J15" s="10">
-        <v>198.67706200000001</v>
+        <v>208.90957399999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,28 +1444,28 @@
         <v>3</v>
       </c>
       <c r="C16" s="10">
-        <v>0.92307700000000004</v>
+        <v>0.894231</v>
       </c>
       <c r="D16" s="10">
-        <v>0.92307700000000004</v>
+        <v>0.894231</v>
       </c>
       <c r="E16" s="10">
-        <v>0.61363999999999996</v>
+        <v>0.58067599999999997</v>
       </c>
       <c r="F16" s="10">
-        <v>0.92307700000000004</v>
+        <v>0.894231</v>
       </c>
       <c r="G16" s="10">
-        <v>0.62997999999999998</v>
+        <v>0.60874700000000004</v>
       </c>
       <c r="H16" s="10">
-        <v>0.92307700000000004</v>
+        <v>0.894231</v>
       </c>
       <c r="I16" s="10">
-        <v>0.62159900000000001</v>
+        <v>0.59401000000000004</v>
       </c>
       <c r="J16" s="10">
-        <v>198.567633</v>
+        <v>209.50266999999999</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1470,28 +1473,28 @@
         <v>4</v>
       </c>
       <c r="C17" s="10">
-        <v>0.90384600000000004</v>
+        <v>0.87820500000000001</v>
       </c>
       <c r="D17" s="10">
-        <v>0.90384600000000004</v>
+        <v>0.87820500000000001</v>
       </c>
       <c r="E17" s="10">
-        <v>0.58752700000000002</v>
+        <v>0.56062000000000001</v>
       </c>
       <c r="F17" s="10">
-        <v>0.90384600000000004</v>
+        <v>0.87820500000000001</v>
       </c>
       <c r="G17" s="10">
-        <v>0.61570400000000003</v>
+        <v>0.61029599999999995</v>
       </c>
       <c r="H17" s="10">
-        <v>0.90384600000000004</v>
+        <v>0.87820500000000001</v>
       </c>
       <c r="I17" s="10">
-        <v>0.601267</v>
+        <v>0.57960900000000004</v>
       </c>
       <c r="J17" s="10">
-        <v>198.56325000000001</v>
+        <v>208.93816000000001</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1499,28 +1502,28 @@
         <v>5</v>
       </c>
       <c r="C18" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.87820500000000001</v>
       </c>
       <c r="D18" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.87820500000000001</v>
       </c>
       <c r="E18" s="10">
-        <v>0.60588699999999995</v>
+        <v>0.58604800000000001</v>
       </c>
       <c r="F18" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.87820500000000001</v>
       </c>
       <c r="G18" s="10">
-        <v>0.61045099999999997</v>
+        <v>0.58885799999999999</v>
       </c>
       <c r="H18" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.87820500000000001</v>
       </c>
       <c r="I18" s="10">
-        <v>0.60805200000000004</v>
+        <v>0.58593899999999999</v>
       </c>
       <c r="J18" s="10">
-        <v>199.355402</v>
+        <v>206.40525</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1528,28 +1531,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.91025599999999995</v>
       </c>
       <c r="D19" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.91025599999999995</v>
       </c>
       <c r="E19" s="10">
-        <v>0.91231200000000001</v>
+        <v>0.58986400000000005</v>
       </c>
       <c r="F19" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.91025599999999995</v>
       </c>
       <c r="G19" s="10">
-        <v>0.64219499999999996</v>
+        <v>0.62487700000000002</v>
       </c>
       <c r="H19" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.91025599999999995</v>
       </c>
       <c r="I19" s="10">
-        <v>0.65797700000000003</v>
+        <v>0.605352</v>
       </c>
       <c r="J19" s="10">
-        <v>211.377116</v>
+        <v>204.80347699999999</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1557,28 +1560,28 @@
         <v>7</v>
       </c>
       <c r="C20" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="D20" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="E20" s="10">
-        <v>0.60948800000000003</v>
+        <v>0.57952099999999995</v>
       </c>
       <c r="F20" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="G20" s="10">
-        <v>0.61521700000000001</v>
+        <v>0.62278299999999998</v>
       </c>
       <c r="H20" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="I20" s="10">
-        <v>0.61122299999999996</v>
+        <v>0.59836699999999998</v>
       </c>
       <c r="J20" s="10">
-        <v>208.473276</v>
+        <v>207.88143299999999</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1586,28 +1589,28 @@
         <v>8</v>
       </c>
       <c r="C21" s="10">
-        <v>0.875</v>
+        <v>0.88782099999999997</v>
       </c>
       <c r="D21" s="10">
-        <v>0.875</v>
+        <v>0.88782099999999997</v>
       </c>
       <c r="E21" s="10">
-        <v>0.57175900000000002</v>
+        <v>0.58473799999999998</v>
       </c>
       <c r="F21" s="10">
-        <v>0.875</v>
+        <v>0.88782099999999997</v>
       </c>
       <c r="G21" s="10">
-        <v>0.58946100000000001</v>
+        <v>0.616201</v>
       </c>
       <c r="H21" s="10">
-        <v>0.875</v>
+        <v>0.88782099999999997</v>
       </c>
       <c r="I21" s="10">
-        <v>0.58035700000000001</v>
+        <v>0.599777</v>
       </c>
       <c r="J21" s="10">
-        <v>207.67839799999999</v>
+        <v>203.828193</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1615,57 +1618,57 @@
         <v>9</v>
       </c>
       <c r="C22" s="10">
-        <v>0.90384600000000004</v>
+        <v>0.91666700000000001</v>
       </c>
       <c r="D22" s="10">
-        <v>0.90384600000000004</v>
+        <v>0.91666700000000001</v>
       </c>
       <c r="E22" s="10">
-        <v>0.57681300000000002</v>
+        <v>0.596669</v>
       </c>
       <c r="F22" s="10">
-        <v>0.90384600000000004</v>
+        <v>0.91666700000000001</v>
       </c>
       <c r="G22" s="10">
-        <v>0.61679099999999998</v>
+        <v>0.62688500000000003</v>
       </c>
       <c r="H22" s="10">
-        <v>0.90384600000000004</v>
+        <v>0.91666700000000001</v>
       </c>
       <c r="I22" s="10">
-        <v>0.59504599999999996</v>
+        <v>0.61092299999999999</v>
       </c>
       <c r="J22" s="10">
-        <v>208.08944099999999</v>
+        <v>203.66999300000001</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+      <c r="B23" s="11">
         <v>10</v>
       </c>
       <c r="C23" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.913462</v>
       </c>
       <c r="D23" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.913462</v>
       </c>
       <c r="E23" s="10">
-        <v>0.59181099999999998</v>
+        <v>0.60336599999999996</v>
       </c>
       <c r="F23" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.913462</v>
       </c>
       <c r="G23" s="10">
-        <v>0.61659799999999998</v>
+        <v>0.62456</v>
       </c>
       <c r="H23" s="10">
-        <v>0.90705100000000005</v>
+        <v>0.913462</v>
       </c>
       <c r="I23" s="10">
-        <v>0.60394700000000001</v>
+        <v>0.61377700000000002</v>
       </c>
       <c r="J23" s="10">
-        <v>210.88366199999999</v>
+        <v>203.71648400000001</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1734,35 +1737,35 @@
       </c>
       <c r="C28" s="7">
         <f>AVERAGE(C14:C23)</f>
-        <v>0.90288460000000015</v>
+        <v>0.89711549999999995</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" ref="D28:J28" si="0">AVERAGE(D14:D23)</f>
-        <v>0.90288460000000015</v>
+        <v>0.89711549999999995</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>0.62416490000000002</v>
+        <v>0.58722450000000004</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>0.90288460000000015</v>
+        <v>0.89711549999999995</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>0.61894609999999994</v>
+        <v>0.61459609999999998</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>0.90288460000000015</v>
+        <v>0.89711549999999995</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
-        <v>0.60888279999999995</v>
+        <v>0.59937339999999995</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>204.28354199999998</v>
+        <v>206.68596210000001</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1771,35 +1774,35 @@
       </c>
       <c r="C29" s="3">
         <f>STDEV(C14:C23)</f>
-        <v>1.3518197276264332E-2</v>
+        <v>1.3802368582964299E-2</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ref="D29:J29" si="1">STDEV(D14:D23)</f>
-        <v>1.3518197276264332E-2</v>
+        <v>1.3802368582964299E-2</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>0.10222513126368531</v>
+        <v>1.2464497692334908E-2</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>1.3518197276264332E-2</v>
+        <v>1.3802368582964299E-2</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>1.4356328805327157E-2</v>
+        <v>1.1377310221567218E-2</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>1.3518197276264332E-2</v>
+        <v>1.3802368582964299E-2</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
-        <v>2.0608708352430918E-2</v>
+        <v>1.0632285760309907E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>5.4594436286753769</v>
+        <v>2.4816116351286452</v>
       </c>
     </row>
   </sheetData>
@@ -1812,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72424044-ED58-4C86-AD31-3A2E055D2E2E}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,293 +1991,293 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>1</v>
       </c>
       <c r="C14" s="10">
+        <v>0.92948699999999995</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.92948699999999995</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.60037700000000005</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.92948699999999995</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.65030500000000002</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.92948699999999995</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.62271200000000004</v>
+      </c>
+      <c r="J14" s="10">
+        <v>207.69227000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
         <v>0.94230800000000003</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>0.94230800000000003</v>
       </c>
-      <c r="E14" s="10">
-        <v>0.62357099999999999</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="E15" s="10">
+        <v>0.62075499999999995</v>
+      </c>
+      <c r="F15" s="10">
         <v>0.94230800000000003</v>
       </c>
-      <c r="G14" s="10">
-        <v>0.65179600000000004</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="G15" s="10">
+        <v>0.64924599999999999</v>
+      </c>
+      <c r="H15" s="10">
         <v>0.94230800000000003</v>
       </c>
-      <c r="I14" s="10">
-        <v>0.63723300000000005</v>
-      </c>
-      <c r="J14" s="10">
-        <v>223.821147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.92307700000000004</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.92307700000000004</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.59362300000000001</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.92307700000000004</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.64874900000000002</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.92307700000000004</v>
-      </c>
       <c r="I15" s="10">
-        <v>0.618035</v>
+        <v>0.63463700000000001</v>
       </c>
       <c r="J15" s="10">
-        <v>203.20423</v>
+        <v>193.893835</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>3</v>
       </c>
       <c r="C16" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95512799999999998</v>
       </c>
       <c r="D16" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95512799999999998</v>
       </c>
       <c r="E16" s="10">
-        <v>0.600769</v>
+        <v>0.62770099999999995</v>
       </c>
       <c r="F16" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95512799999999998</v>
       </c>
       <c r="G16" s="10">
-        <v>0.64490000000000003</v>
+        <v>0.65242599999999995</v>
       </c>
       <c r="H16" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95512799999999998</v>
       </c>
       <c r="I16" s="10">
-        <v>0.62041299999999999</v>
+        <v>0.63972200000000001</v>
       </c>
       <c r="J16" s="10">
-        <v>195.12248600000001</v>
+        <v>192.380167</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>4</v>
       </c>
       <c r="C17" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="D17" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="E17" s="10">
-        <v>0.60691200000000001</v>
+        <v>0.62995199999999996</v>
       </c>
       <c r="F17" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="G17" s="10">
-        <v>0.64730200000000004</v>
+        <v>0.642424</v>
       </c>
       <c r="H17" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="I17" s="10">
-        <v>0.62517800000000001</v>
+        <v>0.63578199999999996</v>
       </c>
       <c r="J17" s="10">
-        <v>202.400194</v>
+        <v>192.41812899999999</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>5</v>
       </c>
       <c r="C18" s="10">
+        <v>0.94551300000000005</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.94551300000000005</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.619564</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.94551300000000005</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.64612800000000004</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.94551300000000005</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.63227500000000003</v>
+      </c>
+      <c r="J18" s="10">
+        <v>192.52323899999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.95512799999999998</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.95512799999999998</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.63422599999999996</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.95512799999999998</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.64994700000000005</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.95512799999999998</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.64198699999999997</v>
+      </c>
+      <c r="J19" s="10">
+        <v>192.39895799999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10">
         <v>0.91666700000000001</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D20" s="10">
         <v>0.91666700000000001</v>
       </c>
-      <c r="E18" s="10">
-        <v>0.59560500000000005</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="E20" s="10">
+        <v>0.59251100000000001</v>
+      </c>
+      <c r="F20" s="10">
         <v>0.91666700000000001</v>
       </c>
-      <c r="G18" s="10">
-        <v>0.63713900000000001</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="G20" s="10">
+        <v>0.63720900000000003</v>
+      </c>
+      <c r="H20" s="10">
         <v>0.91666700000000001</v>
       </c>
-      <c r="I18" s="10">
-        <v>0.61342699999999994</v>
-      </c>
-      <c r="J18" s="10">
-        <v>202.712312</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
-        <v>6</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.93910300000000002</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.93910300000000002</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.95186099999999996</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.93910300000000002</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.67323</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.93910300000000002</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0.68960200000000005</v>
-      </c>
-      <c r="J19" s="10">
-        <v>202.624539</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <v>7</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.91025599999999995</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.91025599999999995</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.59558999999999995</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.91025599999999995</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.63493699999999997</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0.91025599999999995</v>
-      </c>
       <c r="I20" s="10">
-        <v>0.61384499999999997</v>
+        <v>0.60983500000000002</v>
       </c>
       <c r="J20" s="10">
-        <v>203.59427199999999</v>
+        <v>192.35233500000001</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>8</v>
       </c>
       <c r="C21" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="D21" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="E21" s="10">
-        <v>0.60742099999999999</v>
+        <v>0.61870099999999995</v>
       </c>
       <c r="F21" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="G21" s="10">
-        <v>0.63695299999999999</v>
+        <v>0.645123</v>
       </c>
       <c r="H21" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="I21" s="10">
-        <v>0.62165099999999995</v>
+        <v>0.63134299999999999</v>
       </c>
       <c r="J21" s="10">
-        <v>198.49034900000001</v>
+        <v>192.382983</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>9</v>
       </c>
       <c r="C22" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="D22" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="E22" s="10">
-        <v>0.60016899999999995</v>
+        <v>0.61818600000000001</v>
       </c>
       <c r="F22" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="G22" s="10">
-        <v>0.62408600000000003</v>
+        <v>0.62</v>
       </c>
       <c r="H22" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="I22" s="10">
-        <v>0.61132299999999995</v>
+        <v>0.61770999999999998</v>
       </c>
       <c r="J22" s="10">
-        <v>207.75387699999999</v>
+        <v>192.37766300000001</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>10</v>
       </c>
       <c r="C23" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="D23" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="E23" s="10">
-        <v>0.60843000000000003</v>
+        <v>0.63307000000000002</v>
       </c>
       <c r="F23" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="G23" s="10">
-        <v>0.63866900000000004</v>
+        <v>0.63605400000000001</v>
       </c>
       <c r="H23" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="I23" s="10">
-        <v>0.62298699999999996</v>
+        <v>0.633849</v>
       </c>
       <c r="J23" s="10">
-        <v>202.736751</v>
+        <v>192.51080999999999</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -2343,35 +2346,35 @@
       </c>
       <c r="C28" s="7">
         <f>AVERAGE(C14:C23)</f>
-        <v>0.92724360000000006</v>
+        <v>0.93910270000000007</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" ref="D28:J28" si="0">AVERAGE(D14:D23)</f>
-        <v>0.92724360000000006</v>
+        <v>0.93910270000000007</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>0.6383951000000001</v>
+        <v>0.6195042999999999</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>0.92724360000000006</v>
+        <v>0.93910270000000007</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>0.64377609999999996</v>
+        <v>0.64288619999999996</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>0.92724360000000006</v>
+        <v>0.93910270000000007</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
-        <v>0.62736939999999997</v>
+        <v>0.62998519999999991</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>204.24601569999999</v>
+        <v>194.09303890000001</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -2380,35 +2383,35 @@
       </c>
       <c r="C29" s="3">
         <f>STDEV(C14:C23)</f>
-        <v>1.0363854776202837E-2</v>
+        <v>1.3171730511887105E-2</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ref="D29:J29" si="1">STDEV(D14:D23)</f>
-        <v>1.0363854776202837E-2</v>
+        <v>1.3171730511887105E-2</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>0.11049076400963641</v>
+        <v>1.3644452939239101E-2</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>1.0363854776202837E-2</v>
+        <v>1.3171730511887105E-2</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>1.3135168505030895E-2</v>
+        <v>9.7454388624741897E-3</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>1.0363854776202837E-2</v>
+        <v>1.3171730511887105E-2</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
-        <v>2.3087284283778403E-2</v>
+        <v>1.0141865375210259E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>7.6305949117618725</v>
+        <v>4.8010705734889214</v>
       </c>
     </row>
   </sheetData>
@@ -2421,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3DCD87-8371-4007-86D2-E48E3035F08E}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="10">
-        <v>0.87179499999999999</v>
+        <v>0.91666700000000001</v>
       </c>
       <c r="D14" s="10">
-        <v>0.87179499999999999</v>
+        <v>0.91666700000000001</v>
       </c>
       <c r="E14" s="10">
-        <v>0.56333299999999997</v>
+        <v>0.60354799999999997</v>
       </c>
       <c r="F14" s="10">
-        <v>0.87179499999999999</v>
+        <v>0.91666700000000001</v>
       </c>
       <c r="G14" s="10">
-        <v>0.60528199999999999</v>
+        <v>0.62625799999999998</v>
       </c>
       <c r="H14" s="10">
-        <v>0.87179499999999999</v>
+        <v>0.91666700000000001</v>
       </c>
       <c r="I14" s="10">
-        <v>0.581874</v>
+        <v>0.61461100000000002</v>
       </c>
       <c r="J14" s="10">
-        <v>208.81824499999999</v>
+        <v>206.506755</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2630,28 +2633,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="10">
-        <v>0.875</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="D15" s="10">
-        <v>0.875</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="E15" s="10">
-        <v>0.59031699999999998</v>
+        <v>0.58817600000000003</v>
       </c>
       <c r="F15" s="10">
-        <v>0.875</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="G15" s="10">
-        <v>0.572048</v>
+        <v>0.60892100000000005</v>
       </c>
       <c r="H15" s="10">
-        <v>0.875</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="I15" s="10">
-        <v>0.57754300000000003</v>
+        <v>0.59836699999999998</v>
       </c>
       <c r="J15" s="10">
-        <v>202.11796799999999</v>
+        <v>201.17044000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2659,28 +2662,28 @@
         <v>3</v>
       </c>
       <c r="C16" s="10">
-        <v>0.89743600000000001</v>
+        <v>0.88782099999999997</v>
       </c>
       <c r="D16" s="10">
-        <v>0.89743600000000001</v>
+        <v>0.88782099999999997</v>
       </c>
       <c r="E16" s="10">
-        <v>0.595549</v>
+        <v>0.57166700000000004</v>
       </c>
       <c r="F16" s="10">
-        <v>0.89743600000000001</v>
+        <v>0.88782099999999997</v>
       </c>
       <c r="G16" s="10">
-        <v>0.60135700000000003</v>
+        <v>0.62246199999999996</v>
       </c>
       <c r="H16" s="10">
-        <v>0.89743600000000001</v>
+        <v>0.88782099999999997</v>
       </c>
       <c r="I16" s="10">
-        <v>0.59791799999999995</v>
+        <v>0.59219599999999994</v>
       </c>
       <c r="J16" s="10">
-        <v>199.70591300000001</v>
+        <v>196.17883</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -2688,28 +2691,28 @@
         <v>4</v>
       </c>
       <c r="C17" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.90384600000000004</v>
       </c>
       <c r="D17" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.90384600000000004</v>
       </c>
       <c r="E17" s="10">
-        <v>0.58401099999999995</v>
+        <v>0.59375</v>
       </c>
       <c r="F17" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.90384600000000004</v>
       </c>
       <c r="G17" s="10">
-        <v>0.61558999999999997</v>
+        <v>0.61477700000000002</v>
       </c>
       <c r="H17" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.90384600000000004</v>
       </c>
       <c r="I17" s="10">
-        <v>0.597078</v>
+        <v>0.60407900000000003</v>
       </c>
       <c r="J17" s="10">
-        <v>196.07570799999999</v>
+        <v>196.710275</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -2717,28 +2720,28 @@
         <v>5</v>
       </c>
       <c r="C18" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="D18" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="E18" s="10">
-        <v>0.60074899999999998</v>
+        <v>0.60876600000000003</v>
       </c>
       <c r="F18" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="G18" s="10">
-        <v>0.61578100000000002</v>
+        <v>0.61488600000000004</v>
       </c>
       <c r="H18" s="10">
-        <v>0.91666700000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="I18" s="10">
-        <v>0.60813399999999995</v>
+        <v>0.61154200000000003</v>
       </c>
       <c r="J18" s="10">
-        <v>193.08652900000001</v>
+        <v>196.20956899999999</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -2746,28 +2749,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.90705100000000005</v>
       </c>
       <c r="D19" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.90705100000000005</v>
       </c>
       <c r="E19" s="10">
-        <v>0.56884599999999996</v>
+        <v>0.58719100000000002</v>
       </c>
       <c r="F19" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.90705100000000005</v>
       </c>
       <c r="G19" s="10">
-        <v>0.61228099999999996</v>
+        <v>0.62442399999999998</v>
       </c>
       <c r="H19" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.90705100000000005</v>
       </c>
       <c r="I19" s="10">
-        <v>0.585789</v>
+        <v>0.60451600000000005</v>
       </c>
       <c r="J19" s="10">
-        <v>190.20997800000001</v>
+        <v>196.677255</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -2775,28 +2778,28 @@
         <v>7</v>
       </c>
       <c r="C20" s="10">
-        <v>0.90064100000000002</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="D20" s="10">
-        <v>0.90064100000000002</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="E20" s="10">
-        <v>0.59063900000000003</v>
+        <v>0.59442200000000001</v>
       </c>
       <c r="F20" s="10">
-        <v>0.90064100000000002</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="G20" s="10">
-        <v>0.60347099999999998</v>
+        <v>0.59760100000000005</v>
       </c>
       <c r="H20" s="10">
-        <v>0.90064100000000002</v>
+        <v>0.89743600000000001</v>
       </c>
       <c r="I20" s="10">
-        <v>0.59692299999999998</v>
+        <v>0.595719</v>
       </c>
       <c r="J20" s="10">
-        <v>206.704926</v>
+        <v>199.18109000000001</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -2804,28 +2807,28 @@
         <v>8</v>
       </c>
       <c r="C21" s="10">
-        <v>0.86538499999999996</v>
+        <v>0.89102599999999998</v>
       </c>
       <c r="D21" s="10">
-        <v>0.86538499999999996</v>
+        <v>0.89102599999999998</v>
       </c>
       <c r="E21" s="10">
-        <v>0.58487100000000003</v>
+        <v>0.580766</v>
       </c>
       <c r="F21" s="10">
-        <v>0.86538499999999996</v>
+        <v>0.89102599999999998</v>
       </c>
       <c r="G21" s="10">
-        <v>0.57333299999999998</v>
+        <v>0.61503399999999997</v>
       </c>
       <c r="H21" s="10">
-        <v>0.86538499999999996</v>
+        <v>0.89102599999999998</v>
       </c>
       <c r="I21" s="10">
-        <v>0.57493799999999995</v>
+        <v>0.59696400000000005</v>
       </c>
       <c r="J21" s="10">
-        <v>199.22407200000001</v>
+        <v>202.394194</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -2833,28 +2836,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="10">
-        <v>0.87820500000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="D22" s="10">
-        <v>0.87820500000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="E22" s="10">
-        <v>0.57323400000000002</v>
+        <v>0.60277800000000004</v>
       </c>
       <c r="F22" s="10">
-        <v>0.87820500000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="G22" s="10">
-        <v>0.60505900000000001</v>
+        <v>0.60748500000000005</v>
       </c>
       <c r="H22" s="10">
-        <v>0.87820500000000001</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="I22" s="10">
-        <v>0.58840300000000001</v>
+        <v>0.60480299999999998</v>
       </c>
       <c r="J22" s="10">
-        <v>198.57432399999999</v>
+        <v>197.855954</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -2862,28 +2865,28 @@
         <v>10</v>
       </c>
       <c r="C23" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.87179499999999999</v>
       </c>
       <c r="D23" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.87179499999999999</v>
       </c>
       <c r="E23" s="10">
-        <v>0.57931500000000002</v>
+        <v>0.57013899999999995</v>
       </c>
       <c r="F23" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.87179499999999999</v>
       </c>
       <c r="G23" s="10">
-        <v>0.59736299999999998</v>
+        <v>0.60692800000000002</v>
       </c>
       <c r="H23" s="10">
-        <v>0.89102599999999998</v>
+        <v>0.87179499999999999</v>
       </c>
       <c r="I23" s="10">
-        <v>0.588175</v>
+        <v>0.58685799999999999</v>
       </c>
       <c r="J23" s="10">
-        <v>201.51003900000001</v>
+        <v>196.725382</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -2952,35 +2955,35 @@
       </c>
       <c r="C28" s="7">
         <f>AVERAGE(C14:C23)</f>
-        <v>0.88717959999999996</v>
+        <v>0.90128220000000014</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" ref="D28:J28" si="0">AVERAGE(D14:D23)</f>
-        <v>0.88717959999999996</v>
+        <v>0.90128220000000014</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>0.5830864</v>
+        <v>0.59012029999999993</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>0.88717959999999996</v>
+        <v>0.90128220000000014</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>0.60015649999999998</v>
+        <v>0.61387760000000002</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>0.88717959999999996</v>
+        <v>0.90128220000000014</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
-        <v>0.58967749999999997</v>
+        <v>0.60096549999999993</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>199.60277019999998</v>
+        <v>198.96097440000003</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -2989,35 +2992,35 @@
       </c>
       <c r="C29" s="3">
         <f>STDEV(C14:C23)</f>
-        <v>1.5393552605627542E-2</v>
+        <v>1.5467458814484631E-2</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ref="D29:J29" si="1">STDEV(D14:D23)</f>
-        <v>1.5393552605627542E-2</v>
+        <v>1.5467458814484631E-2</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>1.1948621075253834E-2</v>
+        <v>1.3163512829450628E-2</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>1.5393552605627542E-2</v>
+        <v>1.5467458814484631E-2</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>1.5668245865443905E-2</v>
+        <v>8.9443569944655001E-3</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>1.5393552605627542E-2</v>
+        <v>1.5467458814484631E-2</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
-        <v>1.0329078449266947E-2</v>
+        <v>8.5719439938285649E-3</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>5.6732055591495012</v>
+        <v>3.423229720732528</v>
       </c>
     </row>
   </sheetData>
@@ -3030,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59A332C-4FAC-4179-A863-F1D9801446E1}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,28 +3213,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="10">
-        <v>0.93910300000000002</v>
+        <v>0.94871799999999995</v>
       </c>
       <c r="D14" s="10">
-        <v>0.93910300000000002</v>
+        <v>0.94871799999999995</v>
       </c>
       <c r="E14" s="10">
-        <v>0.78415999999999997</v>
+        <v>0.95638800000000002</v>
       </c>
       <c r="F14" s="10">
-        <v>0.93910300000000002</v>
+        <v>0.94871799999999995</v>
       </c>
       <c r="G14" s="10">
-        <v>0.683917</v>
+        <v>0.68489500000000003</v>
       </c>
       <c r="H14" s="10">
-        <v>0.93910300000000002</v>
+        <v>0.94871799999999995</v>
       </c>
       <c r="I14" s="10">
-        <v>0.70057000000000003</v>
+        <v>0.69726299999999997</v>
       </c>
       <c r="J14" s="10">
-        <v>214.968346</v>
+        <v>200.45058499999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3239,28 +3242,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="D15" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="E15" s="10">
-        <v>0.94793700000000003</v>
+        <v>0.95276799999999995</v>
       </c>
       <c r="F15" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="G15" s="10">
-        <v>0.66380799999999995</v>
+        <v>0.726105</v>
       </c>
       <c r="H15" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="I15" s="10">
-        <v>0.68723900000000004</v>
+        <v>0.75583</v>
       </c>
       <c r="J15" s="10">
-        <v>211.56114199999999</v>
+        <v>195.85445200000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3268,28 +3271,28 @@
         <v>3</v>
       </c>
       <c r="C16" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="D16" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="E16" s="10">
-        <v>0.95367199999999996</v>
+        <v>0.95919600000000005</v>
       </c>
       <c r="F16" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="G16" s="10">
-        <v>0.66246799999999995</v>
+        <v>0.68790799999999996</v>
       </c>
       <c r="H16" s="10">
-        <v>0.93269199999999997</v>
+        <v>0.95192299999999996</v>
       </c>
       <c r="I16" s="10">
-        <v>0.68151399999999995</v>
+        <v>0.69335000000000002</v>
       </c>
       <c r="J16" s="10">
-        <v>205.901747</v>
+        <v>194.71656999999999</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -3297,28 +3300,28 @@
         <v>4</v>
       </c>
       <c r="C17" s="10">
-        <v>0.980769</v>
+        <v>0.92307700000000004</v>
       </c>
       <c r="D17" s="10">
-        <v>0.980769</v>
+        <v>0.92307700000000004</v>
       </c>
       <c r="E17" s="10">
-        <v>0.94313499999999995</v>
+        <v>0.93264000000000002</v>
       </c>
       <c r="F17" s="10">
-        <v>0.980769</v>
+        <v>0.92307700000000004</v>
       </c>
       <c r="G17" s="10">
-        <v>0.91469199999999995</v>
+        <v>0.66464000000000001</v>
       </c>
       <c r="H17" s="10">
-        <v>0.980769</v>
+        <v>0.92307700000000004</v>
       </c>
       <c r="I17" s="10">
-        <v>0.92794900000000002</v>
+        <v>0.66084200000000004</v>
       </c>
       <c r="J17" s="10">
-        <v>204.181634</v>
+        <v>194.67979099999999</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -3326,28 +3329,28 @@
         <v>5</v>
       </c>
       <c r="C18" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="D18" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="E18" s="10">
-        <v>0.94906199999999996</v>
+        <v>0.616116</v>
       </c>
       <c r="F18" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="G18" s="10">
-        <v>0.70467199999999997</v>
+        <v>0.64923600000000004</v>
       </c>
       <c r="H18" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="I18" s="10">
-        <v>0.73042700000000005</v>
+        <v>0.63220100000000001</v>
       </c>
       <c r="J18" s="10">
-        <v>208.95000099999999</v>
+        <v>194.73406499999999</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -3355,28 +3358,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.95512799999999998</v>
       </c>
       <c r="D19" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.95512799999999998</v>
       </c>
       <c r="E19" s="10">
-        <v>0.95633800000000002</v>
+        <v>0.75044</v>
       </c>
       <c r="F19" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.95512799999999998</v>
       </c>
       <c r="G19" s="10">
-        <v>0.66093999999999997</v>
+        <v>0.69284400000000002</v>
       </c>
       <c r="H19" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.95512799999999998</v>
       </c>
       <c r="I19" s="10">
-        <v>0.68176199999999998</v>
+        <v>0.70891700000000002</v>
       </c>
       <c r="J19" s="10">
-        <v>209.558999</v>
+        <v>194.740792</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3384,28 +3387,28 @@
         <v>7</v>
       </c>
       <c r="C20" s="10">
-        <v>0.95833299999999999</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="D20" s="10">
-        <v>0.95833299999999999</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="E20" s="10">
-        <v>0.63090599999999997</v>
+        <v>0.94794699999999998</v>
       </c>
       <c r="F20" s="10">
-        <v>0.95833299999999999</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="G20" s="10">
-        <v>0.64657200000000004</v>
+        <v>0.67876000000000003</v>
       </c>
       <c r="H20" s="10">
-        <v>0.95833299999999999</v>
+        <v>0.93910300000000002</v>
       </c>
       <c r="I20" s="10">
-        <v>0.63854200000000005</v>
+        <v>0.67801299999999998</v>
       </c>
       <c r="J20" s="10">
-        <v>208.89407800000001</v>
+        <v>194.728948</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -3413,28 +3416,28 @@
         <v>8</v>
       </c>
       <c r="C21" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="D21" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="E21" s="10">
-        <v>0.813442</v>
+        <v>0.59615399999999996</v>
       </c>
       <c r="F21" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="G21" s="10">
-        <v>0.73688699999999996</v>
+        <v>0.64938799999999997</v>
       </c>
       <c r="H21" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.91987200000000002</v>
       </c>
       <c r="I21" s="10">
-        <v>0.76233899999999999</v>
+        <v>0.62040200000000001</v>
       </c>
       <c r="J21" s="10">
-        <v>209.88898699999999</v>
+        <v>194.54926399999999</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -3442,28 +3445,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="10">
-        <v>0.913462</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="D22" s="10">
-        <v>0.913462</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="E22" s="10">
-        <v>0.59570299999999998</v>
+        <v>0.95364099999999996</v>
       </c>
       <c r="F22" s="10">
-        <v>0.913462</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="G22" s="10">
-        <v>0.63134100000000004</v>
+        <v>0.72335099999999997</v>
       </c>
       <c r="H22" s="10">
-        <v>0.913462</v>
+        <v>0.94230800000000003</v>
       </c>
       <c r="I22" s="10">
-        <v>0.61111099999999996</v>
+        <v>0.75798299999999996</v>
       </c>
       <c r="J22" s="10">
-        <v>209.36888999999999</v>
+        <v>194.33683600000001</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -3471,28 +3474,28 @@
         <v>10</v>
       </c>
       <c r="C23" s="10">
-        <v>0.92628200000000005</v>
+        <v>0.94871799999999995</v>
       </c>
       <c r="D23" s="10">
-        <v>0.92628200000000005</v>
+        <v>0.94871799999999995</v>
       </c>
       <c r="E23" s="10">
-        <v>0.61568299999999998</v>
+        <v>0.96097399999999999</v>
       </c>
       <c r="F23" s="10">
-        <v>0.92628200000000005</v>
+        <v>0.94871799999999995</v>
       </c>
       <c r="G23" s="10">
-        <v>0.64411200000000002</v>
+        <v>0.71972800000000003</v>
       </c>
       <c r="H23" s="10">
-        <v>0.92628200000000005</v>
+        <v>0.94871799999999995</v>
       </c>
       <c r="I23" s="10">
-        <v>0.62955899999999998</v>
+        <v>0.75121000000000004</v>
       </c>
       <c r="J23" s="10">
-        <v>208.75399899999999</v>
+        <v>194.68957</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -3561,35 +3564,35 @@
       </c>
       <c r="C28" s="7">
         <f>AVERAGE(C14:C23)</f>
-        <v>0.93717940000000011</v>
+        <v>0.94198729999999986</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" ref="D28:J28" si="0">AVERAGE(D14:D23)</f>
-        <v>0.93717940000000011</v>
+        <v>0.94198729999999986</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>0.81900380000000017</v>
+        <v>0.86262640000000013</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>0.93717940000000011</v>
+        <v>0.94198729999999986</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>0.69494089999999997</v>
+        <v>0.68768549999999995</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>0.93717940000000011</v>
+        <v>0.94198729999999986</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
-        <v>0.70510119999999998</v>
+        <v>0.69560110000000008</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>209.2027823</v>
+        <v>195.34808729999997</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -3598,35 +3601,35 @@
       </c>
       <c r="C29" s="3">
         <f>STDEV(C14:C23)</f>
-        <v>1.9003769270565483E-2</v>
+        <v>1.2129605984715405E-2</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ref="D29:J29" si="1">STDEV(D14:D23)</f>
-        <v>1.9003769270565483E-2</v>
+        <v>1.2129605984715405E-2</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>0.15411830528655457</v>
+        <v>0.14934693232440713</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>1.9003769270565483E-2</v>
+        <v>1.2129605984715405E-2</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>8.3276063437553144E-2</v>
+        <v>2.8606674381456271E-2</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>1.9003769270565483E-2</v>
+        <v>1.2129605984715405E-2</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
-        <v>9.0670512702495584E-2</v>
+        <v>4.9428430609765914E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>2.9039879042499082</v>
+        <v>1.8366902407011618</v>
       </c>
     </row>
   </sheetData>
@@ -3639,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE8AD3C-79CA-4128-8DC0-6B0CEBFAB347}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,28 +3822,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="10">
-        <v>0.86858999999999997</v>
+        <v>0.894231</v>
       </c>
       <c r="D14" s="10">
-        <v>0.86858999999999997</v>
+        <v>0.894231</v>
       </c>
       <c r="E14" s="10">
-        <v>0.57019900000000001</v>
+        <v>0.59708399999999995</v>
       </c>
       <c r="F14" s="10">
-        <v>0.86858999999999997</v>
+        <v>0.894231</v>
       </c>
       <c r="G14" s="10">
-        <v>0.61152600000000001</v>
+        <v>0.59182999999999997</v>
       </c>
       <c r="H14" s="10">
-        <v>0.86858999999999997</v>
+        <v>0.894231</v>
       </c>
       <c r="I14" s="10">
-        <v>0.58850100000000005</v>
+        <v>0.59288200000000002</v>
       </c>
       <c r="J14" s="10">
-        <v>201.24055899999999</v>
+        <v>206.694469</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3848,28 +3851,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.84935899999999998</v>
       </c>
       <c r="D15" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.84935899999999998</v>
       </c>
       <c r="E15" s="10">
-        <v>0.58493600000000001</v>
+        <v>0.55679999999999996</v>
       </c>
       <c r="F15" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.84935899999999998</v>
       </c>
       <c r="G15" s="10">
-        <v>0.612896</v>
+        <v>0.60310299999999994</v>
       </c>
       <c r="H15" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.84935899999999998</v>
       </c>
       <c r="I15" s="10">
-        <v>0.59858900000000004</v>
+        <v>0.56844399999999995</v>
       </c>
       <c r="J15" s="10">
-        <v>185.900803</v>
+        <v>197.64275900000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3877,28 +3880,28 @@
         <v>3</v>
       </c>
       <c r="C16" s="10">
-        <v>0.87179499999999999</v>
+        <v>0.90705100000000005</v>
       </c>
       <c r="D16" s="10">
-        <v>0.87179499999999999</v>
+        <v>0.90705100000000005</v>
       </c>
       <c r="E16" s="10">
-        <v>0.56339600000000001</v>
+        <v>0.59571499999999999</v>
       </c>
       <c r="F16" s="10">
-        <v>0.87179499999999999</v>
+        <v>0.90705100000000005</v>
       </c>
       <c r="G16" s="10">
-        <v>0.60740700000000003</v>
+        <v>0.62676600000000005</v>
       </c>
       <c r="H16" s="10">
-        <v>0.87179499999999999</v>
+        <v>0.90705100000000005</v>
       </c>
       <c r="I16" s="10">
-        <v>0.58249200000000001</v>
+        <v>0.61043099999999995</v>
       </c>
       <c r="J16" s="10">
-        <v>187.31587400000001</v>
+        <v>199.67646500000001</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -3906,28 +3909,28 @@
         <v>4</v>
       </c>
       <c r="C17" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.88141000000000003</v>
       </c>
       <c r="D17" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.88141000000000003</v>
       </c>
       <c r="E17" s="10">
-        <v>0.57927200000000001</v>
+        <v>0.58631</v>
       </c>
       <c r="F17" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.88141000000000003</v>
       </c>
       <c r="G17" s="10">
-        <v>0.60085500000000003</v>
+        <v>0.59343800000000002</v>
       </c>
       <c r="H17" s="10">
-        <v>0.88461500000000004</v>
+        <v>0.88141000000000003</v>
       </c>
       <c r="I17" s="10">
-        <v>0.58984099999999995</v>
+        <v>0.589028</v>
       </c>
       <c r="J17" s="10">
-        <v>195.28394900000001</v>
+        <v>198.57020199999999</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -3935,28 +3938,28 @@
         <v>5</v>
       </c>
       <c r="C18" s="10">
-        <v>0.88141000000000003</v>
+        <v>0.86858999999999997</v>
       </c>
       <c r="D18" s="10">
-        <v>0.88141000000000003</v>
+        <v>0.86858999999999997</v>
       </c>
       <c r="E18" s="10">
-        <v>0.57896499999999995</v>
+        <v>0.572546</v>
       </c>
       <c r="F18" s="10">
-        <v>0.88141000000000003</v>
+        <v>0.86858999999999997</v>
       </c>
       <c r="G18" s="10">
-        <v>0.60841599999999996</v>
+        <v>0.56804600000000005</v>
       </c>
       <c r="H18" s="10">
-        <v>0.88141000000000003</v>
+        <v>0.86858999999999997</v>
       </c>
       <c r="I18" s="10">
-        <v>0.59332499999999999</v>
+        <v>0.56860699999999997</v>
       </c>
       <c r="J18" s="10">
-        <v>208.65903599999999</v>
+        <v>198.73792800000001</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -3964,28 +3967,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="10">
-        <v>0.91987200000000002</v>
+        <v>0.84935899999999998</v>
       </c>
       <c r="D19" s="10">
-        <v>0.91987200000000002</v>
+        <v>0.84935899999999998</v>
       </c>
       <c r="E19" s="10">
-        <v>0.60853699999999999</v>
+        <v>0.54803000000000002</v>
       </c>
       <c r="F19" s="10">
-        <v>0.91987200000000002</v>
+        <v>0.84935899999999998</v>
       </c>
       <c r="G19" s="10">
-        <v>0.61128499999999997</v>
+        <v>0.599074</v>
       </c>
       <c r="H19" s="10">
-        <v>0.91987200000000002</v>
+        <v>0.84935899999999998</v>
       </c>
       <c r="I19" s="10">
-        <v>0.60972899999999997</v>
+        <v>0.56893800000000005</v>
       </c>
       <c r="J19" s="10">
-        <v>199.92106799999999</v>
+        <v>198.10933800000001</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3999,22 +4002,22 @@
         <v>0.894231</v>
       </c>
       <c r="E20" s="10">
-        <v>0.58777299999999999</v>
+        <v>0.58173399999999997</v>
       </c>
       <c r="F20" s="10">
         <v>0.894231</v>
       </c>
       <c r="G20" s="10">
-        <v>0.60240000000000005</v>
+        <v>0.61405200000000004</v>
       </c>
       <c r="H20" s="10">
         <v>0.894231</v>
       </c>
       <c r="I20" s="10">
-        <v>0.59499299999999999</v>
+        <v>0.59688600000000003</v>
       </c>
       <c r="J20" s="10">
-        <v>203.05174700000001</v>
+        <v>197.53601800000001</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -4022,28 +4025,28 @@
         <v>8</v>
       </c>
       <c r="C21" s="10">
-        <v>0.88141000000000003</v>
+        <v>0.913462</v>
       </c>
       <c r="D21" s="10">
-        <v>0.88141000000000003</v>
+        <v>0.913462</v>
       </c>
       <c r="E21" s="10">
-        <v>0.56517099999999998</v>
+        <v>0.60532200000000003</v>
       </c>
       <c r="F21" s="10">
-        <v>0.88141000000000003</v>
+        <v>0.913462</v>
       </c>
       <c r="G21" s="10">
-        <v>0.62323600000000001</v>
+        <v>0.61463000000000001</v>
       </c>
       <c r="H21" s="10">
-        <v>0.88141000000000003</v>
+        <v>0.913462</v>
       </c>
       <c r="I21" s="10">
-        <v>0.58753599999999995</v>
+        <v>0.60985100000000003</v>
       </c>
       <c r="J21" s="10">
-        <v>204.666527</v>
+        <v>198.16103799999999</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -4051,28 +4054,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.90064100000000002</v>
       </c>
       <c r="D22" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.90064100000000002</v>
       </c>
       <c r="E22" s="10">
-        <v>0.61622600000000005</v>
+        <v>0.58842399999999995</v>
       </c>
       <c r="F22" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.90064100000000002</v>
       </c>
       <c r="G22" s="10">
-        <v>0.62390699999999999</v>
+        <v>0.622112</v>
       </c>
       <c r="H22" s="10">
-        <v>0.92948699999999995</v>
+        <v>0.90064100000000002</v>
       </c>
       <c r="I22" s="10">
-        <v>0.61997000000000002</v>
+        <v>0.60314500000000004</v>
       </c>
       <c r="J22" s="10">
-        <v>204.11270200000001</v>
+        <v>197.50801200000001</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -4080,28 +4083,28 @@
         <v>10</v>
       </c>
       <c r="C23" s="10">
-        <v>0.91025599999999995</v>
+        <v>0.87179499999999999</v>
       </c>
       <c r="D23" s="10">
-        <v>0.91025599999999995</v>
+        <v>0.87179499999999999</v>
       </c>
       <c r="E23" s="10">
-        <v>0.92805599999999999</v>
+        <v>0.56935400000000003</v>
       </c>
       <c r="F23" s="10">
-        <v>0.91025599999999995</v>
+        <v>0.87179499999999999</v>
       </c>
       <c r="G23" s="10">
-        <v>0.68097099999999999</v>
+        <v>0.598549</v>
       </c>
       <c r="H23" s="10">
-        <v>0.91025599999999995</v>
+        <v>0.87179499999999999</v>
       </c>
       <c r="I23" s="10">
-        <v>0.70960800000000002</v>
+        <v>0.58354899999999998</v>
       </c>
       <c r="J23" s="10">
-        <v>205.93970999999999</v>
+        <v>197.437127</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -4170,35 +4173,35 @@
       </c>
       <c r="C28" s="7">
         <f>AVERAGE(C14:C23)</f>
-        <v>0.89262809999999992</v>
+        <v>0.88301289999999999</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" ref="D28:J28" si="0">AVERAGE(D14:D23)</f>
-        <v>0.89262809999999992</v>
+        <v>0.88301289999999999</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>0.61825310000000011</v>
+        <v>0.58013189999999992</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>0.89262809999999992</v>
+        <v>0.88301289999999999</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>0.61828990000000006</v>
+        <v>0.60315999999999992</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>0.89262809999999992</v>
+        <v>0.88301289999999999</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
-        <v>0.60745840000000006</v>
+        <v>0.58917610000000009</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>199.60919750000002</v>
+        <v>199.00733559999998</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -4207,35 +4210,35 @@
       </c>
       <c r="C29" s="3">
         <f>STDEV(C14:C23)</f>
-        <v>2.0564478892011816E-2</v>
+        <v>2.2776742452920423E-2</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ref="D29:J29" si="1">STDEV(D14:D23)</f>
-        <v>2.0564478892011816E-2</v>
+        <v>2.2776742452920423E-2</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>0.11020924667644183</v>
+        <v>1.8326850226132993E-2</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>2.0564478892011816E-2</v>
+        <v>2.2776742452920423E-2</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>2.3288636267740342E-2</v>
+        <v>1.7193206830347595E-2</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>2.0564478892011816E-2</v>
+        <v>2.2776742452920423E-2</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
-        <v>3.7594356752044589E-2</v>
+        <v>1.647119846175945E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>7.7473759535031252</v>
+        <v>2.7901893743429413</v>
       </c>
     </row>
   </sheetData>
